--- a/Docs/Testing Issue List-201505.xlsx
+++ b/Docs/Testing Issue List-201505.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,9 +1758,13 @@
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="18">
+        <v>42135</v>
+      </c>
       <c r="G20" s="15" t="s">
         <v>12</v>
       </c>
@@ -2215,7 +2219,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Testing Issue List-201505.xlsx
+++ b/Docs/Testing Issue List-201505.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -183,13 +183,17 @@
   </si>
   <si>
     <t>相同的货品，如果已经加到订单里，就不能再次加了吗？如果用户想选不同规格的呢？</t>
+  </si>
+  <si>
+    <t>hold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -204,6 +208,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -258,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -313,6 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1346,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1470,9 @@
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="14" t="s">
@@ -1779,9 +1792,13 @@
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="18">
+        <v>42135</v>
+      </c>
       <c r="G21" s="15" t="s">
         <v>12</v>
       </c>
@@ -1796,9 +1813,13 @@
       <c r="C22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="18">
+        <v>42135</v>
+      </c>
       <c r="G22" s="15" t="s">
         <v>12</v>
       </c>
@@ -1889,9 +1910,13 @@
       <c r="C27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="18">
+        <v>42131</v>
+      </c>
       <c r="G27" s="15" t="s">
         <v>12</v>
       </c>
@@ -1906,9 +1931,13 @@
       <c r="C28" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="18">
+        <v>42131</v>
+      </c>
       <c r="G28" s="15" t="s">
         <v>12</v>
       </c>
@@ -1923,9 +1952,13 @@
       <c r="C29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="18">
+        <v>42135</v>
+      </c>
       <c r="G29" s="15" t="s">
         <v>12</v>
       </c>
@@ -1940,9 +1973,13 @@
       <c r="C30" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="18">
+        <v>42135</v>
+      </c>
       <c r="G30" s="15" t="s">
         <v>12</v>
       </c>

--- a/Docs/Testing Issue List-201505.xlsx
+++ b/Docs/Testing Issue List-201505.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Zhongding.git\trunk\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="05-2015" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -187,13 +182,28 @@
   <si>
     <t>hold</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业客户流向配置</t>
+  </si>
+  <si>
+    <t>同一客户同一货品可维护多行记录，不正确，同一客户同一货品只能有一行记录</t>
+  </si>
+  <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>部门设置</t>
+  </si>
+  <si>
+    <t>当部门性质是基药，负责地区是柳州时，部门产品线设置时，能否只显示柳州相关的地区？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -324,9 +334,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1023,6 +1036,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95201</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>132396</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2716187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068001" y="25441275"/>
+          <a:ext cx="3637645" cy="2706662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1357,11 +1408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="78.85546875" style="1" customWidth="1"/>
@@ -1370,7 +1421,7 @@
     <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="159" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1416,7 +1467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1437,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1460,7 +1511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="150.75" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1479,7 +1530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="138.75" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1500,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1521,7 +1572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="188.25" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1542,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="158.25" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1563,7 +1614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1584,7 +1635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1605,7 +1656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1624,7 +1675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="98.25" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1643,7 +1694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1662,7 +1713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="169.5" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1681,7 +1732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1700,7 +1751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1719,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1740,7 +1791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1761,7 +1812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="128.25" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1782,7 +1833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1803,7 +1854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="138.75" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1824,7 +1875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1843,7 +1894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="60">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1862,7 +1913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1881,7 +1932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="153.75" customHeight="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1900,7 +1951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1921,7 +1972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1942,7 +1993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1963,7 +2014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="114" customHeight="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -1984,25 +2035,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="18">
+        <v>42135</v>
+      </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="237.75" customHeight="1">
+      <c r="A32" s="21">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="18">
+        <v>42135</v>
+      </c>
       <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="9"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -2011,7 +2086,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="9"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -2020,7 +2095,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="9"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -2029,7 +2104,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="9"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -2038,7 +2113,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="9"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -2047,7 +2122,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="9"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
@@ -2056,7 +2131,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="9"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
@@ -2065,7 +2140,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="9"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
@@ -2074,7 +2149,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="9"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
@@ -2083,7 +2158,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="9"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
@@ -2092,7 +2167,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="9"/>
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
@@ -2101,7 +2176,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="9"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
@@ -2110,7 +2185,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="9"/>
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
@@ -2119,7 +2194,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="9"/>
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
@@ -2128,7 +2203,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="9"/>
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
@@ -2137,7 +2212,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="9"/>
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
@@ -2146,7 +2221,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
@@ -2155,7 +2230,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="9"/>
       <c r="B50" s="15"/>
       <c r="C50" s="16"/>
@@ -2164,7 +2239,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="9"/>
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
@@ -2173,7 +2248,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="9"/>
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
@@ -2182,7 +2257,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
@@ -2191,7 +2266,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="15"/>
       <c r="C54" s="16"/>
@@ -2200,7 +2275,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
@@ -2209,7 +2284,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="9"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
@@ -2218,7 +2293,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="9"/>
       <c r="B57" s="17"/>
       <c r="C57" s="19"/>
@@ -2227,7 +2302,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="9"/>
       <c r="B58" s="17"/>
       <c r="C58" s="19"/>
@@ -2236,7 +2311,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="17"/>
       <c r="C59" s="19"/>
@@ -2245,7 +2320,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60" s="17"/>
       <c r="C60" s="19"/>
       <c r="D60" s="17"/>

--- a/Docs/Testing Issue List-201505.xlsx
+++ b/Docs/Testing Issue List-201505.xlsx
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1541,7 +1541,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="18">
